--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1394797.646679611</v>
+        <v>1502027.0880777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10636657.49488917</v>
+        <v>10650105.94026881</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.49088380154294</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>117.2278100992611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>145.1576791500345</v>
+        <v>217.9740823282634</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>148.4399041872954</v>
+        <v>337.0811458072623</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>10.12799412870931</v>
       </c>
       <c r="H7" t="n">
-        <v>8.43826401242648</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>83.41943806107204</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>266.5577439313431</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>144.9953084577058</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>156.6241575597405</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.16281301712621</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.16086499484882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>30.6510490328338</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2375,13 +2377,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>96.36494467178768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>271.1749250822257</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>41.02686156550273</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>137.9792024346624</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>224.7837165195613</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>97.98413062224057</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.32755894284</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>2443.927399006962</v>
+        <v>2437.640120926626</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>536.0825277700245</v>
+        <v>1866.686420315119</v>
       </c>
       <c r="C4" t="n">
-        <v>367.1463448421176</v>
+        <v>1697.750237387212</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>1547.633597974876</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1489.822201741129</v>
+        <v>2342.163487664536</v>
       </c>
       <c r="V4" t="n">
-        <v>1235.137713535242</v>
+        <v>2087.478999458649</v>
       </c>
       <c r="W4" t="n">
-        <v>945.7205434982816</v>
+        <v>2087.478999458649</v>
       </c>
       <c r="X4" t="n">
-        <v>717.7309926002642</v>
+        <v>2087.478999458649</v>
       </c>
       <c r="Y4" t="n">
-        <v>717.7309926002642</v>
+        <v>1866.686420315119</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.878520285687</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136264</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792693</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522579</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261499</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285687</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>953.9199926621162</v>
+        <v>783.0370443974457</v>
       </c>
       <c r="C7" t="n">
-        <v>784.9838097342093</v>
+        <v>614.1008614695388</v>
       </c>
       <c r="D7" t="n">
-        <v>634.8671703218736</v>
+        <v>463.9842220572031</v>
       </c>
       <c r="E7" t="n">
-        <v>486.9540767394805</v>
+        <v>316.0711284748099</v>
       </c>
       <c r="F7" t="n">
-        <v>340.0641292415701</v>
+        <v>316.0711284748099</v>
       </c>
       <c r="G7" t="n">
-        <v>172.361292616289</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635886</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X7" t="n">
-        <v>1356.361036635886</v>
+        <v>1185.478088371216</v>
       </c>
       <c r="Y7" t="n">
-        <v>1135.568457492356</v>
+        <v>964.6855092276854</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116518</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.413029176106</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1313.273607737845</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>924.1535645674204</v>
+        <v>683.7982798220355</v>
       </c>
       <c r="C10" t="n">
-        <v>755.2173816395135</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="D10" t="n">
-        <v>605.1007422271778</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="E10" t="n">
-        <v>457.1876486447846</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>310.2977011468743</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.59460854119</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.59460854119</v>
+        <v>1086.239323795805</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.80202939766</v>
+        <v>865.4467446522752</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5734,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>3160.179968880559</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>2991.243785952652</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>2841.127146540317</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>2693.214052957923</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>2546.324105460013</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2379.128006174893</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>3562.621012854329</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>3341.828433710799</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2387.388512467612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6649,10 +6651,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V31" t="n">
         <v>2018.514925172274</v>
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6919,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314351</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7072,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1750.40682139984</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1495.722333193953</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1206.305163156993</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>2389.334518447046</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>2884.660124662805</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>3227.225672628157</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>3058.28948970025</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>2908.172850287915</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>2760.259756705521</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>2613.369809207611</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>2446.173709922491</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>274.8772357154528</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780637</v>
+        <v>319.4183821282443</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944296</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.6711151870885</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>114.7699989900974</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>70.88187642684015</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>15.00954930701846</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>99.26785128072116</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>114.1584408891656</v>
+        <v>45.37941682721009</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>61.40075786968285</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.89260457059909</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>42.31058222398332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>938121.6316787518</v>
+        <v>938121.6316787519</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>930991.3186774668</v>
+        <v>938121.6316787518</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>930991.3186774668</v>
+        <v>938121.6316787518</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="16">
@@ -26317,22 +26319,22 @@
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
@@ -26341,19 +26343,19 @@
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.712987108883681e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605436</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.438655772290076e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808336</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808325</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26445,7 +26447,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828856.4501124513</v>
+        <v>-828856.4501124511</v>
       </c>
       <c r="C6" t="n">
-        <v>114474.0767935951</v>
+        <v>285895.3334634688</v>
       </c>
       <c r="D6" t="n">
-        <v>317912.8184057</v>
+        <v>285895.3334634688</v>
       </c>
       <c r="E6" t="n">
-        <v>69814.32074825958</v>
+        <v>-112258.6590689312</v>
       </c>
       <c r="F6" t="n">
+        <v>395226.7825556147</v>
+      </c>
+      <c r="G6" t="n">
+        <v>395226.7825556148</v>
+      </c>
+      <c r="H6" t="n">
+        <v>395226.7825556148</v>
+      </c>
+      <c r="I6" t="n">
+        <v>395226.7825556147</v>
+      </c>
+      <c r="J6" t="n">
+        <v>227621.604745632</v>
+      </c>
+      <c r="K6" t="n">
+        <v>395226.7825556147</v>
+      </c>
+      <c r="L6" t="n">
         <v>395226.7825556146</v>
       </c>
-      <c r="G6" t="n">
-        <v>395226.7825556145</v>
-      </c>
-      <c r="H6" t="n">
-        <v>395226.7825556145</v>
-      </c>
-      <c r="I6" t="n">
-        <v>395226.7825556145</v>
-      </c>
-      <c r="J6" t="n">
-        <v>227621.6047456321</v>
-      </c>
-      <c r="K6" t="n">
-        <v>346116.6898495603</v>
-      </c>
-      <c r="L6" t="n">
-        <v>395226.7825556143</v>
-      </c>
       <c r="M6" t="n">
-        <v>310171.7546201029</v>
+        <v>262619.4888266879</v>
       </c>
       <c r="N6" t="n">
-        <v>395226.7825556145</v>
+        <v>395226.7825556146</v>
       </c>
       <c r="O6" t="n">
         <v>395226.7825556147</v>
       </c>
       <c r="P6" t="n">
-        <v>395226.7825556146</v>
+        <v>395226.7825556147</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022534</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022534</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022534</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>307.2429578619376</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>269.0101285567924</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>141.0694749711661</v>
+        <v>68.25307179293716</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>216.8329875837121</v>
+        <v>28.19174596374529</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>156.1786059160949</v>
       </c>
       <c r="H7" t="n">
-        <v>136.3167509018943</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>298.5109320111898</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>119.6801947247105</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>21.03049980132241</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.08549782929666</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8531046913764</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,7 +32797,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M27" t="n">
-        <v>730.8697159579444</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>574.6535388222619</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>307.3280120589134</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33430,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33494,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717714</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33971,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093083</v>
       </c>
       <c r="L42" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>466.423818815914</v>
+        <v>617.0987427660945</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770462</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36595,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M27" t="n">
-        <v>588.7356820359261</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.3462379728918</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,10 +37077,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>191.358233988438</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="L42" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1502027.0880777</v>
+        <v>1497889.930827548</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.49088380154294</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>343.6990775316558</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>64.48055111631849</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>217.9740823282634</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>337.0811458072623</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>298.2733221087657</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>10.12799412870931</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>51.92096917925161</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>98.25918840768199</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.5577439313431</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>156.6241575597405</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>30.6510490328338</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>74.99129529219189</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>271.1749250822257</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>41.02686156550273</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960837</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>155.1980648094033</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>108.2950343703266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812388</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365876</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.386702945269</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="Y2" t="n">
-        <v>2437.640120926626</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>527.264525153022</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>821.9680821844936</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1866.686420315119</v>
+        <v>1677.224245322481</v>
       </c>
       <c r="C4" t="n">
-        <v>1697.750237387212</v>
+        <v>1508.288062394575</v>
       </c>
       <c r="D4" t="n">
-        <v>1547.633597974876</v>
+        <v>1358.171422982239</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392483</v>
+        <v>1210.258329399846</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>1210.258329399846</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>1042.271864708124</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>1042.271864708124</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
         <v>1002.60916787878</v>
@@ -4494,7 +4494,7 @@
         <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
         <v>1750.112669035317</v>
@@ -4506,7 +4506,7 @@
         <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
         <v>2562.339328400155</v>
@@ -4521,19 +4521,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>2342.163487664536</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>2087.478999458649</v>
+        <v>2307.654840194268</v>
       </c>
       <c r="W4" t="n">
-        <v>2087.478999458649</v>
+        <v>2307.654840194268</v>
       </c>
       <c r="X4" t="n">
-        <v>2087.478999458649</v>
+        <v>2079.665289296251</v>
       </c>
       <c r="Y4" t="n">
-        <v>1866.686420315119</v>
+        <v>1858.872710152721</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1118.442187461269</v>
+        <v>1918.618935688523</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9561815953475</v>
+        <v>1549.656418748111</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953475</v>
+        <v>1549.656418748111</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525391</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.0370443974457</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
-        <v>614.1008614695388</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>463.9842220572031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>316.0711284748099</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>316.0711284748099</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>1584.000696661112</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.467639269233</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="X7" t="n">
-        <v>1185.478088371216</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y7" t="n">
-        <v>964.6855092276854</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.273607737845</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>520.9312851968494</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.989612394221</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1582.523854133141</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>1313.273607737845</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.7982798220355</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941286</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.742491745203</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.445543553119</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1086.239323795805</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>865.4467446522752</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5369,16 +5369,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892237</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768879</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944948</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5740,37 +5740,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,28 +6238,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3160.179968880559</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2991.243785952652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>2841.127146540317</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>2693.214052957923</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2546.324105460013</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2379.128006174893</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.712221995193</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>4080.027733789307</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3790.610563752346</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3562.621012854329</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3341.828433710799</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,16 +6955,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,73 +7153,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400751</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7329,55 +7329,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2389.334518447046</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>2884.660124662805</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3482.038612289356</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3227.225672628157</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>3058.28948970025</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>2908.172850287915</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>2760.259756705521</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>2613.369809207611</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>2446.173709922491</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742791</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>4147.073437536905</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>3857.656267499944</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>3629.666716601927</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>3408.874137458397</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>105.1672460959151</v>
       </c>
       <c r="L3" t="n">
-        <v>319.4183821282443</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>142.4141550350964</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>15.00954930701846</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>99.26785128072116</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.1260136526046</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.494940240504</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457059909</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26325,37 +26325,37 @@
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828856.4501124511</v>
+        <v>-828856.4501124506</v>
       </c>
       <c r="C6" t="n">
-        <v>285895.3334634688</v>
+        <v>285895.3334634686</v>
       </c>
       <c r="D6" t="n">
-        <v>285895.3334634688</v>
+        <v>285895.3334634687</v>
       </c>
       <c r="E6" t="n">
-        <v>-112258.6590689312</v>
+        <v>-112606.0383232883</v>
       </c>
       <c r="F6" t="n">
-        <v>395226.7825556147</v>
+        <v>394879.4033012575</v>
       </c>
       <c r="G6" t="n">
-        <v>395226.7825556148</v>
+        <v>394879.4033012577</v>
       </c>
       <c r="H6" t="n">
-        <v>395226.7825556148</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="I6" t="n">
-        <v>395226.7825556147</v>
+        <v>394879.4033012575</v>
       </c>
       <c r="J6" t="n">
-        <v>227621.604745632</v>
+        <v>227274.2254912751</v>
       </c>
       <c r="K6" t="n">
-        <v>395226.7825556147</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="L6" t="n">
-        <v>395226.7825556146</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="M6" t="n">
-        <v>262619.4888266879</v>
+        <v>262272.109572331</v>
       </c>
       <c r="N6" t="n">
-        <v>395226.7825556146</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="O6" t="n">
-        <v>395226.7825556147</v>
+        <v>394879.4033012576</v>
       </c>
       <c r="P6" t="n">
-        <v>395226.7825556147</v>
+        <v>394879.4033012576</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2429578619376</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>26.03202314681323</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40.31604408758209</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>68.25307179293716</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>28.19174596374529</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>83.6570479634961</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>156.1786059160949</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>200.2166741445764</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>313.288514365272</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.6801947247105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>53.81584707847267</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>69.08549782929666</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4622569139906</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32311,34 +32311,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6535388222619</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>146.0225991093083</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>291.7547423393999</v>
       </c>
       <c r="L3" t="n">
-        <v>617.0987427660945</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>602.2300008170298</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>322.6208179396316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>432.0572943778175</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>8.181160134949316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1497889.930827548</v>
+        <v>1499650.461130333</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>20.24278785513384</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>343.6990775316558</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>64.48055111631849</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>298.2733221087657</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>382.6774464468521</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>110.3873846888083</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>51.92096917925161</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>98.25918840768199</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>62.49494887582389</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>24.84860440602785</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>4.019807611472472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>105.3305008047048</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624845</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>74.99129529219189</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>4.019807611472472</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6.434538210427135</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.91555826189102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>148.0280580960837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>57.28101103997221</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.1980648094033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>88.92406475355402</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812388</v>
+        <v>121.8674042714186</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592123</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974335</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974335</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>138.0676961918459</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>944.3110907974335</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974335</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>527.264525153022</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L3" t="n">
-        <v>821.9680821844936</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1677.224245322481</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>1508.288062394575</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>1358.171422982239</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>1210.258329399846</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>1210.258329399846</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1042.271864708124</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1042.271864708124</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194268</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>2307.654840194268</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>2079.665289296251</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1858.872710152721</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1918.618935688523</v>
+        <v>1200.956208280833</v>
       </c>
       <c r="C5" t="n">
-        <v>1549.656418748111</v>
+        <v>1200.956208280833</v>
       </c>
       <c r="D5" t="n">
-        <v>1549.656418748111</v>
+        <v>1200.956208280833</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>815.1679556825884</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>808.2224549333849</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4564,55 +4564,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2308.758267664337</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1977.695380320766</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>1977.695380320766</v>
       </c>
       <c r="X5" t="n">
-        <v>2308.758267664335</v>
+        <v>1977.695380320766</v>
       </c>
       <c r="Y5" t="n">
-        <v>1918.618935688523</v>
+        <v>1587.556048344954</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380217</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>792.054313852967</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.000696661112</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W7" t="n">
-        <v>1294.583526624151</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.593975726134</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.8013965826035</v>
+        <v>903.556722629541</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>527.8767859460529</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="C8" t="n">
-        <v>527.8767859460529</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D8" t="n">
-        <v>527.8767859460529</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>527.8767859460529</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>520.9312851968494</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,55 +4801,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2499.213117414474</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2290.467476020298</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2290.467476020298</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1959.404588676728</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460529</v>
+        <v>1606.635933406614</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312196</v>
@@ -4977,37 +4977,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1611.346519664368</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1611.346519664368</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1611.346519664368</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1322.228182168206</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>808.8888553856871</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>639.9526724577802</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597624</v>
+        <v>489.8360330454444</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>341.9229394630513</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,7 +5217,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>990.5373202159268</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>800.5007694647286</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>631.5645865368217</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>333.5348535420928</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>186.6449060441825</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,7 +5454,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2188.359466111739</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U16" t="n">
-        <v>1899.284239455937</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.59975125005</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.182581213089</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>982.1492342949683</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>733.455065717131</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>564.5188827892241</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>414.4022433768884</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>414.4022433768884</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>267.512295878978</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>100.3161965938579</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>100.3161965938579</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,28 +5986,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6235,43 +6235,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,13 +6402,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>538.7363435406111</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400751</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611862</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138449</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703148</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908938</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,13 +7587,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7815,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7824,34 +7824,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>105.1672460959151</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-9.437764892902586e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>40.09054721822649</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>73.62417772602039</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>142.4141550350964</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>74.83129810813837</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.5956654067399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>161.3036423121226</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.63391537253398</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>129.6605885985408</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.494940240504</v>
+        <v>45.37941682720918</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.4693302300319</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651772</v>
-      </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062538</v>
@@ -26334,28 +26334,28 @@
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.645328476224677e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26432,13 +26432,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731936</v>
-      </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731927</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26481,10 +26481,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26493,19 +26493,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-828856.4501124506</v>
       </c>
       <c r="C6" t="n">
-        <v>285895.3334634686</v>
+        <v>285895.3334634678</v>
       </c>
       <c r="D6" t="n">
-        <v>285895.3334634687</v>
+        <v>285895.3334634692</v>
       </c>
       <c r="E6" t="n">
-        <v>-112606.0383232883</v>
+        <v>-112293.3969943675</v>
       </c>
       <c r="F6" t="n">
-        <v>394879.4033012575</v>
+        <v>395192.044630179</v>
       </c>
       <c r="G6" t="n">
-        <v>394879.4033012577</v>
+        <v>395192.044630179</v>
       </c>
       <c r="H6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.0446301788</v>
       </c>
       <c r="I6" t="n">
-        <v>394879.4033012575</v>
+        <v>395192.0446301791</v>
       </c>
       <c r="J6" t="n">
-        <v>227274.2254912751</v>
+        <v>227586.8668201963</v>
       </c>
       <c r="K6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="L6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.044630179</v>
       </c>
       <c r="M6" t="n">
-        <v>262272.109572331</v>
+        <v>262584.7509012523</v>
       </c>
       <c r="N6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.044630179</v>
       </c>
       <c r="O6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.0446301791</v>
       </c>
       <c r="P6" t="n">
-        <v>394879.4033012576</v>
+        <v>395192.0446301789</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>391.3049149178202</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>26.03202314681323</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>40.31604408758209</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.94049690661316</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>83.6570479634961</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28.87025632610187</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>69.444595493129</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>200.2166741445764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>313.288514365272</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.95726652297048</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>53.81584707847267</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>76.70896801354579</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>488.7223436347922</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34541,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>291.7547423393999</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313186</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>602.2300008170298</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>350.167963854918</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38186,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
